--- a/Modelos em Python/resultado_nemenyi_rrmse.xlsx
+++ b/Modelos em Python/resultado_nemenyi_rrmse.xlsx
@@ -547,34 +547,34 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3061040306908038</v>
+        <v>0.2878866439730205</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999186175116</v>
+        <v>0.9999999186162114</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02778565472113061</v>
+        <v>0.02778520129885123</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0008503547443826646</v>
+        <v>0.0008276698916363202</v>
       </c>
       <c r="K2" t="n">
-        <v>0.999999997783045</v>
+        <v>0.9999999977830087</v>
       </c>
       <c r="L2" t="n">
         <v>0.999999999999977</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3061040306908038</v>
+        <v>0.2878866439730205</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4138287102784887</v>
+        <v>0.456086858071735</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9933234174238522</v>
+        <v>0.9933233379389588</v>
       </c>
       <c r="P2" t="n">
-        <v>0.003223560306748162</v>
+        <v>0.003302561049390773</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9747353353314112</v>
+        <v>0.9747350673231648</v>
       </c>
     </row>
     <row r="3">
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3143766418712636</v>
+        <v>0.2959129428059243</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9999998964738067</v>
+        <v>0.9999998964721563</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02921983303885963</v>
+        <v>0.02921936129955519</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0009136345010676811</v>
+        <v>0.0008893851504774</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9999999983811048</v>
+        <v>0.9999999983810781</v>
       </c>
       <c r="L3" t="n">
         <v>0.999999999999957</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3143766418712636</v>
+        <v>0.2959129428059243</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4231297359641351</v>
+        <v>0.4655991675082295</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9938540260056474</v>
+        <v>0.9938539524178918</v>
       </c>
       <c r="P3" t="n">
-        <v>0.003438364832008579</v>
+        <v>0.003522134893754525</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9763384164631481</v>
+        <v>0.9763381637029621</v>
       </c>
     </row>
     <row r="4">
@@ -669,34 +669,34 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4126702322634864</v>
+        <v>0.391987069268412</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9999988305122818</v>
+        <v>0.9999988304941162</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04984321679780769</v>
+        <v>0.04984250616624138</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001980128224544094</v>
+        <v>0.001930568107441959</v>
       </c>
       <c r="K4" t="n">
-        <v>0.999999999970867</v>
+        <v>0.9999999999708665</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9999999999868044</v>
+        <v>0.9999999999868042</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4126702322634864</v>
+        <v>0.391987069268412</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5291985455162336</v>
+        <v>0.572413668445187</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9977287769976695</v>
+        <v>0.9977287481352575</v>
       </c>
       <c r="P4" t="n">
-        <v>0.00687089807723807</v>
+        <v>0.007027257914064724</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9892604911147183</v>
+        <v>0.9892603677418573</v>
       </c>
     </row>
     <row r="5">
@@ -730,34 +730,34 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3143766418712636</v>
+        <v>0.2959129428059243</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9999998964738067</v>
+        <v>0.9999998964721563</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02921983303885963</v>
+        <v>0.02921936129955519</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0009136345010676811</v>
+        <v>0.0008893851504774</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9999999983811048</v>
+        <v>0.9999999983810781</v>
       </c>
       <c r="L5" t="n">
         <v>0.999999999999957</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3143766418712636</v>
+        <v>0.2959129428059243</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4231297359641351</v>
+        <v>0.4655991675082295</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9938540260056474</v>
+        <v>0.9938539524178918</v>
       </c>
       <c r="P5" t="n">
-        <v>0.003438364832008579</v>
+        <v>0.003522134893754525</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9763384164631481</v>
+        <v>0.9763381637029621</v>
       </c>
     </row>
     <row r="6">
@@ -791,34 +791,34 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4045880819065394</v>
+        <v>0.3840390999454938</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999990187057406</v>
+        <v>0.9999990186904645</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04787535918035912</v>
+        <v>0.04787466965886457</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001866368234869566</v>
+        <v>0.001819432351210437</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9999999999583911</v>
+        <v>0.9999999999583904</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9999999999910082</v>
+        <v>0.999999999991008</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4045880819065394</v>
+        <v>0.3840390999454938</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5207720442648385</v>
+        <v>0.5640391539017696</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9975310871338761</v>
+        <v>0.9975310558976084</v>
       </c>
       <c r="P6" t="n">
-        <v>0.006517789637645012</v>
+        <v>0.006666939521054721</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9885240535409973</v>
+        <v>0.9885239224184138</v>
       </c>
     </row>
     <row r="7">
@@ -837,58 +837,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3061040306908038</v>
+        <v>0.2878866439730205</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3143766418712636</v>
+        <v>0.2959129428059243</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4126702322634864</v>
+        <v>0.391987069268412</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3143766418712636</v>
+        <v>0.2959129428059243</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4045880819065394</v>
+        <v>0.3840390999454938</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02337897846737969</v>
+        <v>0.02078596203512778</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9999999650102122</v>
+        <v>0.9999999806408499</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9994058455982519</v>
+        <v>0.9995204017201023</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7781335959158235</v>
+        <v>0.7608517547267077</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1329410214850384</v>
+        <v>0.1222705930495614</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9996091490395306</v>
+        <v>0.9994919539533474</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9999514040565325</v>
+        <v>0.9999670656532461</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.341969126064074</v>
+        <v>0.3227517804016287</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4115127072892575</v>
+        <v>0.3908482367701512</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9999651542690324</v>
+        <v>0.999951403349235</v>
       </c>
     </row>
     <row r="8">
@@ -898,58 +898,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999999186175116</v>
+        <v>0.9999999186162114</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9999998964738067</v>
+        <v>0.9999998964721563</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999988305122818</v>
+        <v>0.9999988304941162</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999998964738067</v>
+        <v>0.9999998964721563</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999990187057406</v>
+        <v>0.9999990186904645</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02337897846737969</v>
+        <v>0.02078596203512778</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004509005911868248</v>
+        <v>0.0004508874169933908</v>
       </c>
       <c r="J8" t="n">
-        <v>3.492598963088573e-06</v>
+        <v>3.369324195302737e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9994771825088248</v>
+        <v>0.999477175418352</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9999999999808097</v>
+        <v>0.9999999999808094</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02337897846737969</v>
+        <v>0.02078596203512778</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04285332791888311</v>
+        <v>0.05276790296359526</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7588933297398908</v>
+        <v>0.758891676132585</v>
       </c>
       <c r="P8" t="n">
-        <v>2.107733521425261e-05</v>
+        <v>2.178888566908482e-05</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9999997798594792</v>
+        <v>0.9999997798559946</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9999988592945984</v>
+        <v>0.9999988592768744</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5997603028896459</v>
+        <v>0.5997581404384923</v>
       </c>
     </row>
     <row r="9">
@@ -959,58 +959,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02778565472113061</v>
+        <v>0.02778520129885123</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02921983303885963</v>
+        <v>0.02921936129955519</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04984321679780769</v>
+        <v>0.04984250616624138</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02921983303885963</v>
+        <v>0.02921936129955519</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04787535918035912</v>
+        <v>0.04787466965886457</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9999999650102122</v>
+        <v>0.9999999806408499</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0004509005911868248</v>
+        <v>0.0004508874169933908</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9999999915493174</v>
+        <v>0.99999999060207</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2314728337186899</v>
+        <v>0.2314709256395946</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006468696463994698</v>
+        <v>0.006468559707588968</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9999999650102122</v>
+        <v>0.9999999806408499</v>
       </c>
       <c r="N9" t="n">
-        <v>0.999999397914763</v>
+        <v>0.9999985034622687</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9375574016835246</v>
+        <v>0.9375568126932156</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9999999999914941</v>
+        <v>0.9999999999928082</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.03432132659936348</v>
+        <v>0.0343207917445904</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04955811027413466</v>
+        <v>0.04955740268196533</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9789470518020045</v>
+        <v>0.9789468241865414</v>
       </c>
     </row>
     <row r="10">
@@ -1020,58 +1020,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0008503547443826646</v>
+        <v>0.0008276698916363202</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0009136345010676811</v>
+        <v>0.0008893851504774</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001980128224544094</v>
+        <v>0.001930568107441959</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0009136345010676811</v>
+        <v>0.0008893851504774</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001866368234869566</v>
+        <v>0.001819432351210437</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9994058455982519</v>
+        <v>0.9995204017201023</v>
       </c>
       <c r="H10" t="n">
-        <v>3.492598963088573e-06</v>
+        <v>3.369324195302737e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9999999915493174</v>
+        <v>0.99999999060207</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02204990075425753</v>
+        <v>0.02162118641344711</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001132919771044993</v>
+        <v>0.0001098719560654811</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9994058455982519</v>
+        <v>0.9995204017201023</v>
       </c>
       <c r="N10" t="n">
-        <v>0.997861428116938</v>
+        <v>0.9966222297022008</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5352162403371492</v>
+        <v>0.5316035737242915</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001150724819737701</v>
+        <v>0.001120689605834606</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001963496155637962</v>
+        <v>0.001914318787423735</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7031846334938154</v>
+        <v>0.6999424796510396</v>
       </c>
     </row>
     <row r="11">
@@ -1081,58 +1081,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999999997783045</v>
+        <v>0.9999999977830087</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9999999983811048</v>
+        <v>0.9999999983810781</v>
       </c>
       <c r="D11" t="n">
-        <v>0.999999999970867</v>
+        <v>0.9999999999708665</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999999983811048</v>
+        <v>0.9999999983810781</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999999999583911</v>
+        <v>0.9999999999583904</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7781335959158235</v>
+        <v>0.7608517547267077</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9994771825088248</v>
+        <v>0.999477175418352</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2314728337186899</v>
+        <v>0.2314709256395946</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02204990075425753</v>
+        <v>0.02162118641344711</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.999998574957787</v>
+        <v>0.9999985749357085</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7781335959158235</v>
+        <v>0.7608517547267077</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8598398399866943</v>
+        <v>0.8842895391696646</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9999855141185918</v>
+        <v>0.9999855139022747</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05677890228914716</v>
+        <v>0.05773769786272787</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9999999994443637</v>
+        <v>0.9999999994443546</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9999999999693299</v>
+        <v>0.9999999999693294</v>
       </c>
       <c r="S11" t="n">
-        <v>0.999803910491927</v>
+        <v>0.9998039077428438</v>
       </c>
     </row>
     <row r="12">
@@ -1148,52 +1148,52 @@
         <v>0.999999999999957</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999999999868044</v>
+        <v>0.9999999999868042</v>
       </c>
       <c r="E12" t="n">
         <v>0.999999999999957</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999999999910082</v>
+        <v>0.999999999991008</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1329410214850384</v>
+        <v>0.1222705930495614</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9999999999808097</v>
+        <v>0.9999999999808094</v>
       </c>
       <c r="I12" t="n">
-        <v>0.006468696463994698</v>
+        <v>0.006468559707588968</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001132919771044993</v>
+        <v>0.0001098719560654811</v>
       </c>
       <c r="K12" t="n">
-        <v>0.999998574957787</v>
+        <v>0.9999985749357085</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1329410214850384</v>
+        <v>0.1222705930495614</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2026530339519277</v>
+        <v>0.2332390724201819</v>
       </c>
       <c r="O12" t="n">
-        <v>0.958280938000195</v>
+        <v>0.9582805210512241</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0005187874447422716</v>
+        <v>0.0005334469927358</v>
       </c>
       <c r="Q12" t="n">
         <v>0.9999999999997149</v>
       </c>
       <c r="R12" t="n">
-        <v>0.999999999987501</v>
+        <v>0.9999999999875008</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8935856599270883</v>
+        <v>0.8935847479356136</v>
       </c>
     </row>
     <row r="13">
@@ -1203,58 +1203,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3061040306908038</v>
+        <v>0.2878866439730205</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3143766418712636</v>
+        <v>0.2959129428059243</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4126702322634864</v>
+        <v>0.391987069268412</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3143766418712636</v>
+        <v>0.2959129428059243</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4045880819065394</v>
+        <v>0.3840390999454938</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02337897846737969</v>
+        <v>0.02078596203512778</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9999999650102122</v>
+        <v>0.9999999806408499</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9994058455982519</v>
+        <v>0.9995204017201023</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7781335959158235</v>
+        <v>0.7608517547267077</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1329410214850384</v>
+        <v>0.1222705930495614</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9996091490395306</v>
+        <v>0.9994919539533474</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9999514040565325</v>
+        <v>0.9999670656532461</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.341969126064074</v>
+        <v>0.3227517804016287</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4115127072892575</v>
+        <v>0.3908482367701512</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9999651542690324</v>
+        <v>0.999951403349235</v>
       </c>
     </row>
     <row r="14">
@@ -1264,58 +1264,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4138287102784887</v>
+        <v>0.456086858071735</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4231297359641351</v>
+        <v>0.4655991675082295</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5291985455162336</v>
+        <v>0.572413668445187</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4231297359641351</v>
+        <v>0.4655991675082295</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5207720442648385</v>
+        <v>0.5640391539017696</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04285332791888311</v>
+        <v>0.05276790296359526</v>
       </c>
       <c r="I14" t="n">
-        <v>0.999999397914763</v>
+        <v>0.9999985034622687</v>
       </c>
       <c r="J14" t="n">
-        <v>0.997861428116938</v>
+        <v>0.9966222297022008</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8598398399866943</v>
+        <v>0.8842895391696646</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2026530339519277</v>
+        <v>0.2332390724201819</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9999186566567796</v>
+        <v>0.99995724829521</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9997479624191818</v>
+        <v>0.9995854190097881</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4537168514931991</v>
+        <v>0.4967140931323457</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5279948178883488</v>
+        <v>0.5712185434789261</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9999953055525372</v>
+        <v>0.9999979522317985</v>
       </c>
     </row>
     <row r="15">
@@ -1325,55 +1325,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9933234174238522</v>
+        <v>0.9933233379389588</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9938540260056474</v>
+        <v>0.9938539524178918</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9977287769976695</v>
+        <v>0.9977287481352575</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9938540260056474</v>
+        <v>0.9938539524178918</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9975310871338761</v>
+        <v>0.9975310558976084</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9996091490395306</v>
+        <v>0.9994919539533474</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7588933297398908</v>
+        <v>0.758891676132585</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9375574016835246</v>
+        <v>0.9375568126932156</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5352162403371492</v>
+        <v>0.5316035737242915</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9999855141185918</v>
+        <v>0.9999855139022747</v>
       </c>
       <c r="L15" t="n">
-        <v>0.958280938000195</v>
+        <v>0.9582805210512241</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9996091490395306</v>
+        <v>0.9994919539533474</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9999186566567796</v>
+        <v>0.99995724829521</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7149432723868867</v>
+        <v>0.7181140192275164</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9953386538242984</v>
+        <v>0.9953385969895859</v>
       </c>
       <c r="R15" t="n">
-        <v>0.9977014058795697</v>
+        <v>0.9977013766876888</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1386,58 +1386,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.003223560306748162</v>
+        <v>0.003302561049390773</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003438364832008579</v>
+        <v>0.003522134893754525</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00687089807723807</v>
+        <v>0.007027257914064724</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003438364832008579</v>
+        <v>0.003522134893754525</v>
       </c>
       <c r="F16" t="n">
-        <v>0.006517789637645012</v>
+        <v>0.006666939521054721</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9999514040565325</v>
+        <v>0.9999670656532461</v>
       </c>
       <c r="H16" t="n">
-        <v>2.107733521425261e-05</v>
+        <v>2.178888566908482e-05</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9999999999914941</v>
+        <v>0.9999999999928082</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="K16" t="n">
-        <v>0.05677890228914716</v>
+        <v>0.05773769786272787</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0005187874447422716</v>
+        <v>0.0005334469927358</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9999514040565325</v>
+        <v>0.9999670656532461</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9997479624191818</v>
+        <v>0.9995854190097881</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7149432723868867</v>
+        <v>0.7181140192275164</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.004229394238513923</v>
+        <v>0.004330455492678917</v>
       </c>
       <c r="R16" t="n">
-        <v>0.006819427096720039</v>
+        <v>0.006974739051865925</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8479980973852352</v>
+        <v>0.8502628320829979</v>
       </c>
     </row>
     <row r="17">
@@ -1462,34 +1462,34 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.341969126064074</v>
+        <v>0.3227517804016287</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9999997798594792</v>
+        <v>0.9999997798559946</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03432132659936348</v>
+        <v>0.0343207917445904</v>
       </c>
       <c r="J17" t="n">
-        <v>0.001150724819737701</v>
+        <v>0.001120689605834606</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9999999994443637</v>
+        <v>0.9999999994443546</v>
       </c>
       <c r="L17" t="n">
         <v>0.9999999999997149</v>
       </c>
       <c r="M17" t="n">
-        <v>0.341969126064074</v>
+        <v>0.3227517804016287</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4537168514931991</v>
+        <v>0.4967140931323457</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9953386538242984</v>
+        <v>0.9953385969895859</v>
       </c>
       <c r="P17" t="n">
-        <v>0.004229394238513923</v>
+        <v>0.004330455492678917</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9809938120013143</v>
+        <v>0.9809936044226079</v>
       </c>
     </row>
     <row r="18">
@@ -1523,34 +1523,34 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4115127072892575</v>
+        <v>0.3908482367701512</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9999988592945984</v>
+        <v>0.9999988592768744</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04955811027413466</v>
+        <v>0.04955740268196533</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001963496155637962</v>
+        <v>0.001914318787423735</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9999999999693299</v>
+        <v>0.9999999999693294</v>
       </c>
       <c r="L18" t="n">
-        <v>0.999999999987501</v>
+        <v>0.9999999999875008</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4115127072892575</v>
+        <v>0.3908482367701512</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5279948178883488</v>
+        <v>0.5712185434789261</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9977014058795697</v>
+        <v>0.9977013766876888</v>
       </c>
       <c r="P18" t="n">
-        <v>0.006819427096720039</v>
+        <v>0.006974739051865925</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0.989157757941023</v>
+        <v>0.9891576334836834</v>
       </c>
     </row>
     <row r="19">
@@ -1569,55 +1569,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9747353353314112</v>
+        <v>0.9747350673231648</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9763384164631481</v>
+        <v>0.9763381637029621</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9892604911147183</v>
+        <v>0.9892603677418573</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9763384164631481</v>
+        <v>0.9763381637029621</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9885240535409973</v>
+        <v>0.9885239224184138</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9999651542690324</v>
+        <v>0.999951403349235</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5997603028896459</v>
+        <v>0.5997581404384923</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9789470518020045</v>
+        <v>0.9789468241865414</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7031846334938154</v>
+        <v>0.6999424796510396</v>
       </c>
       <c r="K19" t="n">
-        <v>0.999803910491927</v>
+        <v>0.9998039077428438</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8935856599270883</v>
+        <v>0.8935847479356136</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9999651542690324</v>
+        <v>0.999951403349235</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9999953055525372</v>
+        <v>0.9999979522317985</v>
       </c>
       <c r="O19" t="n">
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8479980973852352</v>
+        <v>0.8502628320829979</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.9809938120013143</v>
+        <v>0.9809936044226079</v>
       </c>
       <c r="R19" t="n">
-        <v>0.989157757941023</v>
+        <v>0.9891576334836834</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>

--- a/Modelos em Python/resultado_nemenyi_rrmse.xlsx
+++ b/Modelos em Python/resultado_nemenyi_rrmse.xlsx
@@ -547,34 +547,34 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2878866439730205</v>
+        <v>0.2989452507415361</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999186162114</v>
+        <v>0.999999918612311</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02778520129885123</v>
+        <v>0.02743480952013382</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0008276698916363202</v>
+        <v>0.000897319749688825</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9999999977830087</v>
+        <v>0.9999999977828998</v>
       </c>
       <c r="L2" t="n">
         <v>0.999999999999977</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2878866439730205</v>
+        <v>0.2989452507415361</v>
       </c>
       <c r="N2" t="n">
-        <v>0.456086858071735</v>
+        <v>0.4301330381045385</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9933233379389588</v>
+        <v>0.9933230994780394</v>
       </c>
       <c r="P2" t="n">
-        <v>0.003302561049390773</v>
+        <v>0.003120512527317286</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9747350673231648</v>
+        <v>0.9747342632799736</v>
       </c>
     </row>
     <row r="3">
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2959129428059243</v>
+        <v>0.307123699322891</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9999998964721563</v>
+        <v>0.999999896467205</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02921936129955519</v>
+        <v>0.02885366123314598</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0008893851504774</v>
+        <v>0.0009638275899331407</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9999999983810781</v>
+        <v>0.9999999983809985</v>
       </c>
       <c r="L3" t="n">
-        <v>0.999999999999957</v>
+        <v>0.9999999999999569</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2959129428059243</v>
+        <v>0.307123699322891</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4655991675082295</v>
+        <v>0.4395282137972994</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9938539524178918</v>
+        <v>0.9938537316488119</v>
       </c>
       <c r="P3" t="n">
-        <v>0.003522134893754525</v>
+        <v>0.003329077419196077</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9763381637029621</v>
+        <v>0.9763374054048601</v>
       </c>
     </row>
     <row r="4">
@@ -669,34 +669,34 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.391987069268412</v>
+        <v>0.4045788989155267</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9999988304941162</v>
+        <v>0.9999988304396178</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04984250616624138</v>
+        <v>0.0492715206167261</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001930568107441959</v>
+        <v>0.002082460753269098</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9999999999708665</v>
+        <v>0.9999999999708651</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9999999999868042</v>
+        <v>0.9999999999868036</v>
       </c>
       <c r="M4" t="n">
-        <v>0.391987069268412</v>
+        <v>0.4045788989155267</v>
       </c>
       <c r="N4" t="n">
-        <v>0.572413668445187</v>
+        <v>0.5460316858772004</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9977287481352575</v>
+        <v>0.9977286615455881</v>
       </c>
       <c r="P4" t="n">
-        <v>0.007027257914064724</v>
+        <v>0.006666518609280686</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9892603677418573</v>
+        <v>0.989259997613969</v>
       </c>
     </row>
     <row r="5">
@@ -730,34 +730,34 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2959129428059243</v>
+        <v>0.307123699322891</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9999998964721563</v>
+        <v>0.999999896467205</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02921936129955519</v>
+        <v>0.02885366123314598</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0008893851504774</v>
+        <v>0.0009638275899331407</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9999999983810781</v>
+        <v>0.9999999983809985</v>
       </c>
       <c r="L5" t="n">
-        <v>0.999999999999957</v>
+        <v>0.9999999999999569</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2959129428059243</v>
+        <v>0.307123699322891</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4655991675082295</v>
+        <v>0.4395282137972994</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9938539524178918</v>
+        <v>0.9938537316488119</v>
       </c>
       <c r="P5" t="n">
-        <v>0.003522134893754525</v>
+        <v>0.003329077419196077</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9763381637029621</v>
+        <v>0.9763374054048601</v>
       </c>
     </row>
     <row r="6">
@@ -791,34 +791,34 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3840390999454938</v>
+        <v>0.3965465778472112</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999990186904645</v>
+        <v>0.9999990186446347</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04787466965886457</v>
+        <v>0.04732223017755986</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001819432351210437</v>
+        <v>0.001963301005769741</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9999999999583904</v>
+        <v>0.9999999999583883</v>
       </c>
       <c r="L6" t="n">
-        <v>0.999999999991008</v>
+        <v>0.9999999999910075</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3840390999454938</v>
+        <v>0.3965465778472112</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5640391539017696</v>
+        <v>0.5376136186781522</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9975310558976084</v>
+        <v>0.9975309621861844</v>
       </c>
       <c r="P6" t="n">
-        <v>0.006666939521054721</v>
+        <v>0.006322863982814772</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9885239224184138</v>
+        <v>0.9885235290408331</v>
       </c>
     </row>
     <row r="7">
@@ -837,58 +837,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2878866439730205</v>
+        <v>0.2989452507415361</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2959129428059243</v>
+        <v>0.307123699322891</v>
       </c>
       <c r="D7" t="n">
-        <v>0.391987069268412</v>
+        <v>0.4045788989155267</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2959129428059243</v>
+        <v>0.307123699322891</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3840390999454938</v>
+        <v>0.3965465778472112</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02078596203512778</v>
+        <v>0.02233797466132328</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9999999806408499</v>
+        <v>0.999999970240793</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9995204017201023</v>
+        <v>0.9995063398871931</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7608517547267077</v>
+        <v>0.7714851746649835</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1222705930495614</v>
+        <v>0.1287096863481121</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9994919539533474</v>
+        <v>0.9995667744664597</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9999670656532461</v>
+        <v>0.9999539897531978</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3227517804016287</v>
+        <v>0.3344290929821613</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3908482367701512</v>
+        <v>0.4034283034379965</v>
       </c>
       <c r="S7" t="n">
-        <v>0.999951403349235</v>
+        <v>0.9999602923696016</v>
       </c>
     </row>
     <row r="8">
@@ -898,58 +898,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999999186162114</v>
+        <v>0.999999918612311</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9999998964721563</v>
+        <v>0.999999896467205</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999988304941162</v>
+        <v>0.9999988304396178</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999998964721563</v>
+        <v>0.999999896467205</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999990186904645</v>
+        <v>0.9999990186446347</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02078596203512778</v>
+        <v>0.02233797466132328</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004508874169933908</v>
+        <v>0.000442452203379336</v>
       </c>
       <c r="J8" t="n">
-        <v>3.369324195302737e-06</v>
+        <v>3.751326692014749e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>0.999477175418352</v>
+        <v>0.999477154146293</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9999999999808094</v>
+        <v>0.9999999999808084</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02078596203512778</v>
+        <v>0.02233797466132328</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05276790296359526</v>
+        <v>0.04650642154688149</v>
       </c>
       <c r="O8" t="n">
-        <v>0.758891676132585</v>
+        <v>0.7588867152474277</v>
       </c>
       <c r="P8" t="n">
-        <v>2.178888566908482e-05</v>
+        <v>2.015896170794839e-05</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9999997798559946</v>
+        <v>0.9999997798455407</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9999988592768744</v>
+        <v>0.9999988592237002</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5997581404384923</v>
+        <v>0.5997516530321125</v>
       </c>
     </row>
     <row r="9">
@@ -959,58 +959,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02778520129885123</v>
+        <v>0.02743480952013382</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02921936129955519</v>
+        <v>0.02885366123314598</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04984250616624138</v>
+        <v>0.0492715206167261</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02921936129955519</v>
+        <v>0.02885366123314598</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04787466965886457</v>
+        <v>0.04732223017755986</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9999999806408499</v>
+        <v>0.999999970240793</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0004508874169933908</v>
+        <v>0.000442452203379336</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.99999999060207</v>
+        <v>0.9999999936577842</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2314709256395946</v>
+        <v>0.2297050809520428</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006468559707588968</v>
+        <v>0.006370963812896373</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9999999806408499</v>
+        <v>0.999999970240793</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9999985034622687</v>
+        <v>0.9999990903952687</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9375568126932156</v>
+        <v>0.9367253320745561</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9999999999928082</v>
+        <v>0.9999999999904956</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0343207917445904</v>
+        <v>0.03390185610232305</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04955740268196533</v>
+        <v>0.04898909208944269</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9789468241865414</v>
+        <v>0.9785883383096345</v>
       </c>
     </row>
     <row r="10">
@@ -1020,58 +1020,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0008276698916363202</v>
+        <v>0.000897319749688825</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008893851504774</v>
+        <v>0.0009638275899331407</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001930568107441959</v>
+        <v>0.002082460753269098</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0008893851504774</v>
+        <v>0.0009638275899331407</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001819432351210437</v>
+        <v>0.001963301005769741</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9995204017201023</v>
+        <v>0.9995063398871931</v>
       </c>
       <c r="H10" t="n">
-        <v>3.369324195302737e-06</v>
+        <v>3.751326692014749e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>0.99999999060207</v>
+        <v>0.9999999936577842</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02162118641344711</v>
+        <v>0.0229269573760767</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001098719560654811</v>
+        <v>0.000120412346399071</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9995204017201023</v>
+        <v>0.9995063398871931</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9966222297022008</v>
+        <v>0.997645683831052</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5316035737242915</v>
+        <v>0.5424249295314858</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001120689605834606</v>
+        <v>0.001212849774437015</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001914318787423735</v>
+        <v>0.002065041194006979</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6999424796510396</v>
+        <v>0.7096152388214727</v>
       </c>
     </row>
     <row r="11">
@@ -1081,58 +1081,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999999977830087</v>
+        <v>0.9999999977828998</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9999999983810781</v>
+        <v>0.9999999983809985</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999999708665</v>
+        <v>0.9999999999708651</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999999983810781</v>
+        <v>0.9999999983809985</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999999999583904</v>
+        <v>0.9999999999583883</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7608517547267077</v>
+        <v>0.7714851746649835</v>
       </c>
       <c r="H11" t="n">
-        <v>0.999477175418352</v>
+        <v>0.999477154146293</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2314709256395946</v>
+        <v>0.2297050809520428</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02162118641344711</v>
+        <v>0.0229269573760767</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9999985749357085</v>
+        <v>0.9999985748694709</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7608517547267077</v>
+        <v>0.7714851746649835</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8842895391696646</v>
+        <v>0.8697050056559741</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9999855139022747</v>
+        <v>0.9999855132533018</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05773769786272787</v>
+        <v>0.05551646707062562</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9999999994443546</v>
+        <v>0.999999999444327</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9999999999693294</v>
+        <v>0.9999999999693279</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9998039077428438</v>
+        <v>0.9998038994953369</v>
       </c>
     </row>
     <row r="12">
@@ -1145,55 +1145,55 @@
         <v>0.999999999999977</v>
       </c>
       <c r="C12" t="n">
-        <v>0.999999999999957</v>
+        <v>0.9999999999999569</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999999999868042</v>
+        <v>0.9999999999868036</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999999999999957</v>
+        <v>0.9999999999999569</v>
       </c>
       <c r="F12" t="n">
-        <v>0.999999999991008</v>
+        <v>0.9999999999910075</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1222705930495614</v>
+        <v>0.1287096863481121</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9999999999808094</v>
+        <v>0.9999999999808084</v>
       </c>
       <c r="I12" t="n">
-        <v>0.006468559707588968</v>
+        <v>0.006370963812896373</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001098719560654811</v>
+        <v>0.000120412346399071</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9999985749357085</v>
+        <v>0.9999985748694709</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1222705930495614</v>
+        <v>0.1287096863481121</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2332390724201819</v>
+        <v>0.2142272593273213</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9582805210512241</v>
+        <v>0.9582792701775619</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0005334469927358</v>
+        <v>0.0004997489071843272</v>
       </c>
       <c r="Q12" t="n">
         <v>0.9999999999997149</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9999999999875008</v>
+        <v>0.9999999999875001</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8935847479356136</v>
+        <v>0.8935820119129857</v>
       </c>
     </row>
     <row r="13">
@@ -1203,58 +1203,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2878866439730205</v>
+        <v>0.2989452507415361</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2959129428059243</v>
+        <v>0.307123699322891</v>
       </c>
       <c r="D13" t="n">
-        <v>0.391987069268412</v>
+        <v>0.4045788989155267</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2959129428059243</v>
+        <v>0.307123699322891</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3840390999454938</v>
+        <v>0.3965465778472112</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02078596203512778</v>
+        <v>0.02233797466132328</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9999999806408499</v>
+        <v>0.999999970240793</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9995204017201023</v>
+        <v>0.9995063398871931</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7608517547267077</v>
+        <v>0.7714851746649835</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1222705930495614</v>
+        <v>0.1287096863481121</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9994919539533474</v>
+        <v>0.9995667744664597</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9999670656532461</v>
+        <v>0.9999539897531978</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3227517804016287</v>
+        <v>0.3344290929821613</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3908482367701512</v>
+        <v>0.4034283034379965</v>
       </c>
       <c r="S13" t="n">
-        <v>0.999951403349235</v>
+        <v>0.9999602923696016</v>
       </c>
     </row>
     <row r="14">
@@ -1264,58 +1264,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.456086858071735</v>
+        <v>0.4301330381045385</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4655991675082295</v>
+        <v>0.4395282137972994</v>
       </c>
       <c r="D14" t="n">
-        <v>0.572413668445187</v>
+        <v>0.5460316858772004</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4655991675082295</v>
+        <v>0.4395282137972994</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5640391539017696</v>
+        <v>0.5376136186781522</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05276790296359526</v>
+        <v>0.04650642154688149</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9999985034622687</v>
+        <v>0.9999990903952687</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9966222297022008</v>
+        <v>0.997645683831052</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8842895391696646</v>
+        <v>0.8697050056559741</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2332390724201819</v>
+        <v>0.2142272593273213</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.99995724829521</v>
+        <v>0.9999363648154144</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9995854190097881</v>
+        <v>0.9996682554951765</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4967140931323457</v>
+        <v>0.4703610600273782</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5712185434789261</v>
+        <v>0.5448296200239193</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9999979522317985</v>
+        <v>0.9999965775594183</v>
       </c>
     </row>
     <row r="15">
@@ -1325,55 +1325,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9933233379389588</v>
+        <v>0.9933230994780394</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9938539524178918</v>
+        <v>0.9938537316488119</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9977287481352575</v>
+        <v>0.9977286615455881</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9938539524178918</v>
+        <v>0.9938537316488119</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9975310558976084</v>
+        <v>0.9975309621861844</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9994919539533474</v>
+        <v>0.9995667744664597</v>
       </c>
       <c r="H15" t="n">
-        <v>0.758891676132585</v>
+        <v>0.7588867152474277</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9375568126932156</v>
+        <v>0.9367253320745561</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5316035737242915</v>
+        <v>0.5424249295314858</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9999855139022747</v>
+        <v>0.9999855132533018</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9582805210512241</v>
+        <v>0.9582792701775619</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9994919539533474</v>
+        <v>0.9995667744664597</v>
       </c>
       <c r="N15" t="n">
-        <v>0.99995724829521</v>
+        <v>0.9999363648154144</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7181140192275164</v>
+        <v>0.7106826458214919</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9953385969895859</v>
+        <v>0.9953384264808682</v>
       </c>
       <c r="R15" t="n">
-        <v>0.9977013766876888</v>
+        <v>0.9977012891095864</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1386,58 +1386,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.003302561049390773</v>
+        <v>0.003120512527317286</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003522134893754525</v>
+        <v>0.003329077419196077</v>
       </c>
       <c r="D16" t="n">
-        <v>0.007027257914064724</v>
+        <v>0.006666518609280686</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003522134893754525</v>
+        <v>0.003329077419196077</v>
       </c>
       <c r="F16" t="n">
-        <v>0.006666939521054721</v>
+        <v>0.006322863982814772</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9999670656532461</v>
+        <v>0.9999539897531978</v>
       </c>
       <c r="H16" t="n">
-        <v>2.178888566908482e-05</v>
+        <v>2.015896170794839e-05</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9999999999928082</v>
+        <v>0.9999999999904956</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.05773769786272787</v>
+        <v>0.05551646707062562</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0005334469927358</v>
+        <v>0.0004997489071843272</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9999670656532461</v>
+        <v>0.9999539897531978</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9995854190097881</v>
+        <v>0.9996682554951765</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7181140192275164</v>
+        <v>0.7106826458214919</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.004330455492678917</v>
+        <v>0.004097475371223801</v>
       </c>
       <c r="R16" t="n">
-        <v>0.006974739051865925</v>
+        <v>0.006616421733764768</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8502628320829979</v>
+        <v>0.8449393535164408</v>
       </c>
     </row>
     <row r="17">
@@ -1462,34 +1462,34 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3227517804016287</v>
+        <v>0.3344290929821613</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9999997798559946</v>
+        <v>0.9999997798455407</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0343207917445904</v>
+        <v>0.03390185610232305</v>
       </c>
       <c r="J17" t="n">
-        <v>0.001120689605834606</v>
+        <v>0.001212849774437015</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9999999994443546</v>
+        <v>0.999999999444327</v>
       </c>
       <c r="L17" t="n">
         <v>0.9999999999997149</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3227517804016287</v>
+        <v>0.3344290929821613</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4967140931323457</v>
+        <v>0.4703610600273782</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9953385969895859</v>
+        <v>0.9953384264808682</v>
       </c>
       <c r="P17" t="n">
-        <v>0.004330455492678917</v>
+        <v>0.004097475371223801</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9809936044226079</v>
+        <v>0.9809929816717063</v>
       </c>
     </row>
     <row r="18">
@@ -1523,34 +1523,34 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3908482367701512</v>
+        <v>0.4034283034379965</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9999988592768744</v>
+        <v>0.9999988592237002</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04955740268196533</v>
+        <v>0.04898909208944269</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001914318787423735</v>
+        <v>0.002065041194006979</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9999999999693294</v>
+        <v>0.9999999999693279</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9999999999875008</v>
+        <v>0.9999999999875001</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3908482367701512</v>
+        <v>0.4034283034379965</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5712185434789261</v>
+        <v>0.5448296200239193</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9977013766876888</v>
+        <v>0.9977012891095864</v>
       </c>
       <c r="P18" t="n">
-        <v>0.006974739051865925</v>
+        <v>0.006616421733764768</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9891576334836834</v>
+        <v>0.9891572601022848</v>
       </c>
     </row>
     <row r="19">
@@ -1569,55 +1569,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9747350673231648</v>
+        <v>0.9747342632799736</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9763381637029621</v>
+        <v>0.9763374054048601</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9892603677418573</v>
+        <v>0.989259997613969</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9763381637029621</v>
+        <v>0.9763374054048601</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9885239224184138</v>
+        <v>0.9885235290408331</v>
       </c>
       <c r="G19" t="n">
-        <v>0.999951403349235</v>
+        <v>0.9999602923696016</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5997581404384923</v>
+        <v>0.5997516530321125</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9789468241865414</v>
+        <v>0.9785883383096345</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6999424796510396</v>
+        <v>0.7096152388214727</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9998039077428438</v>
+        <v>0.9998038994953369</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8935847479356136</v>
+        <v>0.8935820119129857</v>
       </c>
       <c r="M19" t="n">
-        <v>0.999951403349235</v>
+        <v>0.9999602923696016</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9999979522317985</v>
+        <v>0.9999965775594183</v>
       </c>
       <c r="O19" t="n">
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8502628320829979</v>
+        <v>0.8449393535164408</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.9809936044226079</v>
+        <v>0.9809929816717063</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9891576334836834</v>
+        <v>0.9891572601022848</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
